--- a/Appendix/2. Project Management/2.3 Sprint Backlogs/2.3.2 Sprint_Backlog_2.xlsx
+++ b/Appendix/2. Project Management/2.3 Sprint Backlogs/2.3.2 Sprint_Backlog_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Honours\SprintBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kari\Documents\University Folder\Fourth Year\Honours\Appendix\2. Project Management\2.3 Sprint Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
     <definedName name="colorList3">Sheet1!#REF!</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="To_Do">Sheet1!$V$2:$V$3</definedName>
-    <definedName name="Todos">Sheet1!$V$2:$V$4</definedName>
+    <definedName name="Todos">Sheet1!$V$2:$V$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +166,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,6 +237,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -819,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,7 +856,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="V3" s="7" t="s">
@@ -853,353 +864,301 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="9"/>
+      <c r="V4" s="7"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="Q5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="V5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="3" t="s">
+      <c r="Q9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R11" s="3" t="s">
+      <c r="Q12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="8">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="8">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3">
-        <v>15</v>
-      </c>
-      <c r="H12" s="3">
-        <v>12</v>
-      </c>
-      <c r="I12" s="3">
-        <v>12</v>
-      </c>
-      <c r="J12" s="3">
-        <v>12</v>
-      </c>
-      <c r="K12" s="3">
-        <v>12</v>
-      </c>
-      <c r="L12" s="3">
-        <v>12</v>
-      </c>
-      <c r="M12" s="3">
-        <v>12</v>
-      </c>
-      <c r="N12" s="3">
-        <v>12</v>
-      </c>
-      <c r="O12" s="3">
-        <v>12</v>
-      </c>
-      <c r="P12" s="3">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>12</v>
-      </c>
-      <c r="R12" s="3">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B13" s="8">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="8">
         <v>15</v>
@@ -1210,257 +1169,288 @@
       <c r="F13" s="3">
         <v>15</v>
       </c>
-      <c r="G13" s="3">
-        <v>15</v>
-      </c>
-      <c r="H13" s="3">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3">
-        <v>15</v>
-      </c>
-      <c r="J13" s="3">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3">
-        <v>15</v>
-      </c>
-      <c r="L13" s="3">
-        <v>15</v>
-      </c>
-      <c r="M13" s="3">
-        <v>15</v>
-      </c>
-      <c r="N13" s="3">
-        <v>15</v>
-      </c>
-      <c r="O13" s="3">
-        <v>15</v>
-      </c>
-      <c r="P13" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>15</v>
-      </c>
-      <c r="R13" s="3">
-        <v>15</v>
+      <c r="G13" s="8">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8">
+        <v>12</v>
+      </c>
+      <c r="I13" s="8">
+        <v>12</v>
+      </c>
+      <c r="J13" s="8">
+        <v>12</v>
+      </c>
+      <c r="K13" s="8">
+        <v>12</v>
+      </c>
+      <c r="L13" s="8">
+        <v>12</v>
+      </c>
+      <c r="M13" s="8">
+        <v>12</v>
+      </c>
+      <c r="N13" s="8">
+        <v>12</v>
+      </c>
+      <c r="O13" s="8">
+        <v>12</v>
+      </c>
+      <c r="P13" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>12</v>
+      </c>
+      <c r="R13" s="8">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="8">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F14" s="3">
-        <v>6</v>
-      </c>
-      <c r="G14" s="3">
-        <v>6</v>
-      </c>
-      <c r="H14" s="3">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3">
-        <v>6</v>
-      </c>
-      <c r="J14" s="3">
-        <v>6</v>
-      </c>
-      <c r="K14" s="3">
-        <v>6</v>
-      </c>
-      <c r="L14" s="3">
-        <v>6</v>
-      </c>
-      <c r="M14" s="3">
-        <v>6</v>
-      </c>
-      <c r="N14" s="3">
-        <v>6</v>
-      </c>
-      <c r="O14" s="3">
-        <v>6</v>
-      </c>
-      <c r="P14" s="3">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>6</v>
-      </c>
-      <c r="R14" s="3">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="G14" s="8">
+        <v>15</v>
+      </c>
+      <c r="H14" s="8">
+        <v>15</v>
+      </c>
+      <c r="I14" s="8">
+        <v>15</v>
+      </c>
+      <c r="J14" s="8">
+        <v>15</v>
+      </c>
+      <c r="K14" s="8">
+        <v>15</v>
+      </c>
+      <c r="L14" s="8">
+        <v>15</v>
+      </c>
+      <c r="M14" s="8">
+        <v>15</v>
+      </c>
+      <c r="N14" s="8">
+        <v>15</v>
+      </c>
+      <c r="O14" s="8">
+        <v>15</v>
+      </c>
+      <c r="P14" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>15</v>
+      </c>
+      <c r="R14" s="8">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="8">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="8">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6</v>
+      </c>
+      <c r="G15" s="8">
+        <v>6</v>
+      </c>
+      <c r="H15" s="8">
+        <v>6</v>
+      </c>
+      <c r="I15" s="8">
+        <v>6</v>
+      </c>
+      <c r="J15" s="8">
+        <v>6</v>
+      </c>
+      <c r="K15" s="8">
+        <v>6</v>
+      </c>
+      <c r="L15" s="8">
+        <v>6</v>
+      </c>
+      <c r="M15" s="8">
+        <v>6</v>
+      </c>
+      <c r="N15" s="8">
+        <v>6</v>
+      </c>
+      <c r="O15" s="8">
+        <v>6</v>
+      </c>
+      <c r="P15" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>6</v>
+      </c>
+      <c r="R15" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="8">
         <v>25</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E16" s="3">
         <v>25</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F16" s="3">
         <v>25</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="8">
         <v>25</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H16" s="8">
         <v>25</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I16" s="8">
         <v>25</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J16" s="8">
         <v>25</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K16" s="8">
         <v>25</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L16" s="8">
         <v>25</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M16" s="8">
         <v>25</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N16" s="8">
         <v>25</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O16" s="8">
         <v>25</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P16" s="8">
         <v>25</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q16" s="8">
         <v>25</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R16" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R17" s="3" t="s">
+      <c r="Q18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>20</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>11</v>
@@ -1485,230 +1475,259 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21">
-        <f>SUM(B5:B17)</f>
+      <c r="B22">
+        <f>SUM(B6:B18)</f>
         <v>73</v>
       </c>
-      <c r="D21">
-        <f t="shared" ref="D21:J21" si="0">SUM(D5:D17)</f>
+      <c r="D22">
+        <f t="shared" ref="D22:J22" si="0">SUM(D6:D18)</f>
         <v>61</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="K21">
-        <f t="shared" ref="K21:Q21" si="1">SUM(K5:K20)</f>
+      <c r="K22">
+        <f t="shared" ref="K22:Q22" si="1">SUM(K6:K21)</f>
         <v>58</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="N21">
+      <c r="N22">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="O21">
+      <c r="O22">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="P21">
+      <c r="P22">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="Q21">
+      <c r="Q22">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
+      <c r="R22">
+        <f>SUM(R6:R16)</f>
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C6">
     <cfRule type="containsText" dxfId="35" priority="118" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",C6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="119" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",C6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="33" priority="120" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("To Do",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C6">
     <cfRule type="cellIs" dxfId="32" priority="117" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+  <conditionalFormatting sqref="C20">
     <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="C21">
     <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",C21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",C21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("To Do",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
-      <formula>"Done"</formula>
+    <cfRule type="containsText" dxfId="22" priority="30" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="32" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C18)))</formula>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="22" priority="30" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="32" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
+  <conditionalFormatting sqref="C10">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C13">
     <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",C13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("To Do",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C13">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C14">
     <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",C14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",C14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("To Do",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C14">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
+  <conditionalFormatting sqref="C16">
     <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",C16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("In Progress",C16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("To Do",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Done"</formula>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",C14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",C14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
+  <conditionalFormatting sqref="C15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V4">
       <formula1>To_Do</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C20 C5 C9 C12:C15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C21 C6 C10 C13:C16">
       <formula1>Todos</formula1>
     </dataValidation>
   </dataValidations>

--- a/Appendix/2. Project Management/2.3 Sprint Backlogs/2.3.2 Sprint_Backlog_2.xlsx
+++ b/Appendix/2. Project Management/2.3 Sprint Backlogs/2.3.2 Sprint_Backlog_2.xlsx
@@ -833,7 +833,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,10 +1163,10 @@
       <c r="D13" s="8">
         <v>15</v>
       </c>
-      <c r="E13" s="3">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="8">
+        <v>15</v>
+      </c>
+      <c r="F13" s="8">
         <v>15</v>
       </c>
       <c r="G13" s="8">
@@ -1219,10 +1219,10 @@
       <c r="D14" s="8">
         <v>15</v>
       </c>
-      <c r="E14" s="3">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="8">
+        <v>15</v>
+      </c>
+      <c r="F14" s="8">
         <v>15</v>
       </c>
       <c r="G14" s="8">
@@ -1275,10 +1275,10 @@
       <c r="D15" s="8">
         <v>6</v>
       </c>
-      <c r="E15" s="3">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="8">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8">
         <v>6</v>
       </c>
       <c r="G15" s="8">
@@ -1331,10 +1331,10 @@
       <c r="D16" s="8">
         <v>25</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="8">
         <v>25</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="8">
         <v>25</v>
       </c>
       <c r="G16" s="8">
